--- a/Reports/Insurance/Conclusion of Insurance.xlsx
+++ b/Reports/Insurance/Conclusion of Insurance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7862F873-7C2B-4A6A-9758-4422DF8ADE7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73973EE-F3C1-4645-A073-42DE371C9CA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId3"/>
+    <pivotCache cacheId="17" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Timestamp</t>
   </si>
@@ -193,12 +193,6 @@
   </si>
   <si>
     <t>Claims Officer 7 years experience)</t>
-  </si>
-  <si>
-    <t>Average of Agent (7 years experience)</t>
-  </si>
-  <si>
-    <t>Average of Legal Officer (1 - 3 years experience)</t>
   </si>
   <si>
     <t>ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ</t>
@@ -321,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -329,16 +323,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,11 +1135,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43651.391957523148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{5FBE2AB9-66A8-4946-AD61-8BB20E8EAAEF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43658.399442013892" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{5FBE2AB9-66A8-4946-AD61-8BB20E8EAAEF}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="43">
+  <cacheFields count="57">
     <cacheField name="Timestamp" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-12T15:05:16" maxDate="2019-06-25T14:17:33"/>
     </cacheField>
@@ -1113,10 +1226,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Legal Officer (4 - 6 years experience)" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Legal Officer (7 years experience)" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Administrative Officer (new graduate)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="230" maxValue="250"/>
@@ -1131,16 +1248,24 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1500" maxValue="1500"/>
     </cacheField>
     <cacheField name="Claims Officer (new graduate)" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Claims Officer (1 - 3 years experience)" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Claims Officer (4 - 6 years experience)" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Claims Officer 7 years experience)" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Does your Company or Organization plan to increase or decrease headcount in next 6 to 12 months?" numFmtId="0">
       <sharedItems/>
@@ -1158,7 +1283,49 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="What kind of skills does your Company or Organization require?" numFmtId="0">
-      <sharedItems longText="1"/>
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column2" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column3" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column4" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column5" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column6" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column7" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column8" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column9" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Column10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column11" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column12" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column13" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column14" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1199,22 +1366,36 @@
     <n v="1800"/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="250"/>
     <n v="350"/>
     <n v="420"/>
     <n v="1500"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="ເພີ່ມ"/>
     <s v="ຍ້ອນມີການຂະຫຍາຍສາຂາເພີ່ມ"/>
     <s v="Accountant, Marketing, Agent Leader"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-25T14:17:33"/>
@@ -1244,30 +1425,44 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="230"/>
     <n v="340"/>
     <m/>
     <n v="1500"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <s v="ເພີ່ມ"/>
     <s v="ຍ້ອນມີການຂະຫຍາຍສາຂາເພີ່ມ"/>
     <s v="ການຕະຫຼາດ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C923F05-7EA8-41FE-84BE-516E893A62E4}" name="RawData" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="43">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C923F05-7EA8-41FE-84BE-516E893A62E4}" name="RawData" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="57">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1276,7 +1471,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1299,12 +1494,56 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
+    <pivotField showAll="0">
       <items count="2">
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1322,24 +1561,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Average of Agent (7 years experience)" fld="8" subtotal="average" baseField="0" baseItem="1663777152"/>
-    <dataField name="Average of Legal Officer (1 - 3 years experience)" fld="26" subtotal="average" baseField="0" baseItem="1"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1715,31 +1936,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434910F7-A280-4B0B-8DE3-8E2CF995472F}">
-  <dimension ref="A3:B4"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1500</v>
-      </c>
-      <c r="B4" s="4"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1753,7 +2050,7 @@
   </sheetPr>
   <dimension ref="A1:BN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BD13" sqref="BD13"/>
     </sheetView>
@@ -1929,46 +2226,46 @@
         <v>10</v>
       </c>
       <c r="AR1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT1" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>69</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>70</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>74</v>
-      </c>
       <c r="BA1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC1" t="s">
         <v>81</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>82</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>83</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2079,34 +2376,34 @@
       <c r="AO2" s="3"/>
       <c r="AP2" s="3"/>
       <c r="AQ2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
@@ -2213,49 +2510,49 @@
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AS3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
